--- a/data/metadata_annotated.xlsx
+++ b/data/metadata_annotated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\active_repos\SSRL-Sulfur\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ABBA12-0CB9-4DAE-A7FA-1A1DCC3A7E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3608577-DEF6-4BF7-B722-F110E40E78ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1000,18 +1000,6 @@
     <t>compound</t>
   </si>
   <si>
-    <t>glass negative control</t>
-  </si>
-  <si>
-    <t>Dibenzothiophene</t>
-  </si>
-  <si>
-    <t>Methionine Sulfoxide</t>
-  </si>
-  <si>
-    <t>Cysteic Acid</t>
-  </si>
-  <si>
     <t>BA4A-80-GFF</t>
   </si>
   <si>
@@ -1021,15 +1009,9 @@
     <t>BA3A-80-GFF</t>
   </si>
   <si>
-    <t>Methionine</t>
-  </si>
-  <si>
     <t>BA1B-80-GFF</t>
   </si>
   <si>
-    <t>Glutathione Disulfide</t>
-  </si>
-  <si>
     <t>is_GFF</t>
   </si>
   <si>
@@ -1306,16 +1288,34 @@
     <t>Extraction Blank 2</t>
   </si>
   <si>
-    <t>BA1B_260_Brick_Blank</t>
-  </si>
-  <si>
-    <t>BA3A_50_Brick_Blank</t>
-  </si>
-  <si>
     <t>Extraction Blank 1</t>
   </si>
   <si>
     <t>is_TLE_blank</t>
+  </si>
+  <si>
+    <t>Organic Disulfide (Glutathione Disulfide)</t>
+  </si>
+  <si>
+    <t>Organic Monosulfide (Methionine)</t>
+  </si>
+  <si>
+    <t>Sulfonate (Cysteic Acid)</t>
+  </si>
+  <si>
+    <t>Sulfoxide (Methionine Sulfoxide)</t>
+  </si>
+  <si>
+    <t>Aromatic (Dibenzothiophene)</t>
+  </si>
+  <si>
+    <t>Brick Blank 1</t>
+  </si>
+  <si>
+    <t>Brick Blank 2</t>
+  </si>
+  <si>
+    <t>Glass Control</t>
   </si>
 </sst>
 </file>
@@ -1874,10 +1874,10 @@
   <dimension ref="A1:L371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B205" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H218" sqref="H218"/>
+      <selection pane="bottomRight" activeCell="H227" sqref="H227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,19 +1903,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>325</v>
@@ -1927,10 +1927,10 @@
         <v>323</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I115" t="b">
         <v>0</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I116" t="b">
         <v>0</v>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="I118" t="b">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="I122" t="b">
         <v>1</v>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I211" t="b">
         <v>1</v>
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="I215" t="b">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I218" t="b">
         <v>0</v>
@@ -9621,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="I221" t="b">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I222" t="b">
         <v>0</v>
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I223" t="b">
         <v>1</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="I224" t="b">
         <v>0</v>
@@ -9761,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="I225" t="b">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I226" t="b">
         <v>1</v>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>326</v>
+        <v>431</v>
       </c>
       <c r="I227" t="b">
         <v>0</v>
@@ -9866,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>327</v>
+        <v>428</v>
       </c>
       <c r="I228" t="b">
         <v>1</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="I229" t="b">
         <v>0</v>
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="I230" t="b">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="s">
-        <v>328</v>
+        <v>427</v>
       </c>
       <c r="I231" t="b">
         <v>1</v>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I232" t="b">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="I233" t="b">
         <v>0</v>
@@ -10076,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="s">
-        <v>329</v>
+        <v>426</v>
       </c>
       <c r="I234" t="b">
         <v>1</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="I235" t="b">
         <v>0</v>
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I236" t="b">
         <v>0</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="I237" t="b">
         <v>0</v>
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="I238" t="b">
         <v>0</v>
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="I239" t="b">
         <v>0</v>
@@ -10286,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I240" t="b">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>333</v>
+        <v>425</v>
       </c>
       <c r="I241" t="b">
         <v>1</v>
@@ -10356,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="I242" t="b">
         <v>0</v>
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I243" t="b">
         <v>0</v>
@@ -10426,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>335</v>
+        <v>424</v>
       </c>
       <c r="I244" t="b">
         <v>1</v>
@@ -10545,7 +10545,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B248" t="s">
         <v>4</v>
@@ -10566,7 +10566,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I248" t="b">
         <v>0</v>
@@ -10580,7 +10580,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B249" t="s">
         <v>4</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="I249" t="b">
         <v>0</v>
@@ -11000,7 +11000,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B261" t="s">
         <v>4</v>
@@ -11035,7 +11035,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B262" t="s">
         <v>4</v>
@@ -11070,7 +11070,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B263" t="s">
         <v>4</v>
@@ -11105,7 +11105,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B264" t="s">
         <v>4</v>
@@ -11140,7 +11140,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B265" t="s">
         <v>4</v>
@@ -11175,7 +11175,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B266" t="s">
         <v>4</v>
@@ -11210,7 +11210,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B267" t="s">
         <v>4</v>
@@ -11245,7 +11245,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B268" t="s">
         <v>4</v>
@@ -11266,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="I268" t="b">
         <v>0</v>
@@ -11385,7 +11385,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B272" t="s">
         <v>263</v>
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I281" t="b">
         <v>0</v>
@@ -12470,7 +12470,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B303" t="s">
         <v>263</v>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B316" t="s">
         <v>263</v>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I317" t="b">
         <v>0</v>
@@ -12995,7 +12995,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B318" t="s">
         <v>263</v>
@@ -13030,7 +13030,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B319" t="s">
         <v>263</v>
@@ -13065,7 +13065,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B320" t="s">
         <v>263</v>
@@ -13100,7 +13100,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B321" t="s">
         <v>263</v>
@@ -13135,7 +13135,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B322" t="s">
         <v>263</v>
@@ -13205,7 +13205,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B324" t="s">
         <v>263</v>
@@ -13240,7 +13240,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B325" t="s">
         <v>263</v>
@@ -13275,7 +13275,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B326" t="s">
         <v>263</v>
@@ -13310,7 +13310,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B327" t="s">
         <v>263</v>
@@ -13345,7 +13345,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B328" t="s">
         <v>263</v>
@@ -13380,7 +13380,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B329" t="s">
         <v>263</v>
@@ -13415,7 +13415,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B330" t="s">
         <v>263</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B331" t="s">
         <v>263</v>
@@ -13485,7 +13485,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B332" t="s">
         <v>263</v>
@@ -13520,7 +13520,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B333" t="s">
         <v>263</v>
@@ -13555,7 +13555,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B334" t="s">
         <v>263</v>
@@ -13590,7 +13590,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B335" t="s">
         <v>263</v>
@@ -13625,7 +13625,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B336" t="s">
         <v>263</v>
@@ -13660,7 +13660,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B337" t="s">
         <v>263</v>
@@ -13695,7 +13695,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B338" t="s">
         <v>263</v>
@@ -13730,7 +13730,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B339" t="s">
         <v>263</v>
@@ -13765,7 +13765,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B340" t="s">
         <v>263</v>
@@ -13835,7 +13835,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B342" t="s">
         <v>63</v>
@@ -13870,7 +13870,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B343" t="s">
         <v>63</v>
@@ -13905,7 +13905,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B344" t="s">
         <v>63</v>
@@ -13940,7 +13940,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B345" t="s">
         <v>63</v>
@@ -13975,7 +13975,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B346" t="s">
         <v>63</v>
@@ -14010,7 +14010,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B347" t="s">
         <v>63</v>
@@ -14045,7 +14045,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B348" t="s">
         <v>63</v>
@@ -14080,7 +14080,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B349" t="s">
         <v>63</v>
@@ -14115,7 +14115,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B350" t="s">
         <v>63</v>
@@ -14150,7 +14150,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B351" t="s">
         <v>63</v>
@@ -14185,7 +14185,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B352" t="s">
         <v>63</v>
@@ -14220,7 +14220,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B353" t="s">
         <v>63</v>
@@ -14255,7 +14255,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B354" t="s">
         <v>63</v>
@@ -14290,7 +14290,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B355" t="s">
         <v>63</v>
@@ -14325,7 +14325,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B356" t="s">
         <v>63</v>
@@ -14360,7 +14360,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B357" t="s">
         <v>63</v>
@@ -14395,7 +14395,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B358" t="s">
         <v>63</v>
@@ -14430,7 +14430,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B359" t="s">
         <v>63</v>
@@ -14521,7 +14521,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I361" t="b">
         <v>0</v>
@@ -14591,7 +14591,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="I363" t="b">
         <v>1</v>
@@ -14626,7 +14626,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="I364" t="b">
         <v>0</v>
@@ -14661,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="I365" t="b">
         <v>1</v>
@@ -14696,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I366" t="b">
         <v>1</v>
@@ -14731,7 +14731,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="I367" t="b">
         <v>1</v>
@@ -14766,7 +14766,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="I368" t="b">
         <v>1</v>
@@ -14801,7 +14801,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="I369" t="b">
         <v>1</v>
@@ -14836,7 +14836,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="I370" t="b">
         <v>1</v>
@@ -14850,7 +14850,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B371" t="s">
         <v>263</v>

--- a/data/metadata_annotated.xlsx
+++ b/data/metadata_annotated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tacaro/Documents/GitHub/SSRL-Sulfur/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\active_repos\SSRL-Sulfur\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833F1864-200E-4B45-A81F-92758548B19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EA130E-6F87-4DFA-A845-98BCD27726E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="431">
   <si>
     <t>filename</t>
   </si>
@@ -392,9 +392,6 @@
   </si>
   <si>
     <t>data/bl143_dec22/02_mu/STANDARD_millerite_001_001_fl.mu</t>
-  </si>
-  <si>
-    <t>data/bl143_dec22/02_mu/STANDARD_millerite_001_002_fl.mu</t>
   </si>
   <si>
     <t>data/bl143_dec22/02_mu/STANDARD_pyrite_003_001_fl.mu</t>
@@ -1368,7 +1365,53 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1564,8 +1607,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB4A81DE-6118-4092-9CF9-B6CF4313DEBD}" name="Table1" displayName="Table1" ref="A1:L1048576" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:L1048576" xr:uid="{AB4A81DE-6118-4092-9CF9-B6CF4313DEBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB4A81DE-6118-4092-9CF9-B6CF4313DEBD}" name="Table1" displayName="Table1" ref="A1:L1048575" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="A1:L1048575" xr:uid="{AB4A81DE-6118-4092-9CF9-B6CF4313DEBD}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{FA626A5A-15D0-44B9-B79D-1CF4574082F3}" name="filename"/>
     <tableColumn id="2" xr3:uid="{E4FD3C9D-CA4D-4EE4-97F6-C92210819D81}" name="core"/>
@@ -1871,31 +1914,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L371"/>
+  <dimension ref="A1:L370"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B283" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A298" sqref="A298"/>
+      <selection pane="bottomRight" activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="23.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1903,37 +1946,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1956,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -1968,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1991,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -2003,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2026,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -2038,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2061,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -2073,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2096,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -2108,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2131,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -2143,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2166,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -2178,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2201,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -2213,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2236,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -2248,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2271,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -2283,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2306,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -2318,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2341,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -2353,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2376,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -2388,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2411,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -2423,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2446,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -2458,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2481,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -2493,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2516,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -2528,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2551,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -2563,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2586,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -2598,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2621,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -2633,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2656,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2668,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2691,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2703,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2726,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2738,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2761,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2773,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2796,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -2808,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2831,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2843,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2866,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2878,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2901,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2913,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2936,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -2948,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2971,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -2983,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -3006,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -3018,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3041,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -3053,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -3076,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -3088,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -3111,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -3123,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -3146,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -3158,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3181,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -3193,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -3216,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -3228,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -3251,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -3263,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3286,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -3298,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -3321,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -3333,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -3356,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -3368,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3391,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -3403,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -3426,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -3438,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -3461,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -3473,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3496,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -3508,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3531,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -3543,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3566,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -3578,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3601,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -3613,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -3636,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -3648,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -3671,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
@@ -3683,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -3706,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -3718,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -3741,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -3753,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -3776,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -3788,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -3811,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -3823,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -3846,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -3858,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -3881,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -3893,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -3916,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -3928,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -3951,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -3963,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -3986,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -3998,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -4021,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -4033,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -4056,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -4068,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -4091,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -4103,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -4126,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -4138,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -4161,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -4173,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -4196,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -4208,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -4231,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
@@ -4243,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -4266,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -4278,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -4301,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -4313,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -4336,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
@@ -4348,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -4371,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
@@ -4383,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -4406,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
@@ -4418,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -4441,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
@@ -4453,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -4476,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
@@ -4488,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -4511,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
@@ -4523,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -4546,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I76" t="b">
         <v>0</v>
@@ -4558,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -4581,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
@@ -4593,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -4616,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I78" t="b">
         <v>0</v>
@@ -4628,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -4651,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
@@ -4663,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -4686,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
@@ -4698,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -4721,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I81" t="b">
         <v>0</v>
@@ -4733,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -4756,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I82" t="b">
         <v>0</v>
@@ -4768,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -4791,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I83" t="b">
         <v>0</v>
@@ -4803,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -4826,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -4838,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -4861,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -4873,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -4896,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
@@ -4908,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -4931,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
@@ -4943,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -4966,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
@@ -4978,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -5001,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I89" t="b">
         <v>0</v>
@@ -5013,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -5036,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -5048,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -5071,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
@@ -5083,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -5106,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
@@ -5118,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -5141,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -5153,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -5176,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -5188,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -5211,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
@@ -5223,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -5246,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -5258,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -5281,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I97" t="b">
         <v>0</v>
@@ -5293,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -5316,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -5328,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -5351,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
@@ -5363,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -5386,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -5398,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -5421,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
@@ -5433,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -5456,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
@@ -5468,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -5491,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I103" t="b">
         <v>0</v>
@@ -5503,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -5526,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I104" t="b">
         <v>0</v>
@@ -5538,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -5561,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I105" t="b">
         <v>0</v>
@@ -5573,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -5596,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
@@ -5608,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -5631,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I107" t="b">
         <v>0</v>
@@ -5643,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -5666,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -5678,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -5701,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -5713,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -5736,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I110" t="b">
         <v>0</v>
@@ -5748,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -5771,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I111" t="b">
         <v>0</v>
@@ -5783,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -5806,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I112" t="b">
         <v>0</v>
@@ -5818,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -5841,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
@@ -5853,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -5876,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I114" t="b">
         <v>0</v>
@@ -5888,15 +5931,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C115" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -5911,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I115" t="b">
         <v>0</v>
@@ -5923,15 +5966,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C116" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -5946,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I116" t="b">
         <v>0</v>
@@ -5958,15 +6001,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C117" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -5981,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
@@ -5993,15 +6036,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C118" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
@@ -6016,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I118" t="b">
         <v>1</v>
@@ -6028,15 +6071,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C119" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -6051,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
@@ -6063,15 +6106,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C120" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -6086,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
@@ -6098,15 +6141,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C121" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
@@ -6121,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
@@ -6133,21 +6176,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>324</v>
-      </c>
-      <c r="C122" t="s">
-        <v>324</v>
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>110</v>
       </c>
       <c r="D122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
@@ -6156,10 +6199,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="I122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
@@ -6168,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -6191,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I123" t="b">
         <v>0</v>
@@ -6203,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -6226,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I124" t="b">
         <v>0</v>
@@ -6238,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -6261,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I125" t="b">
         <v>0</v>
@@ -6273,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -6296,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I126" t="b">
         <v>0</v>
@@ -6308,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -6331,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I127" t="b">
         <v>0</v>
@@ -6343,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -6366,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I128" t="b">
         <v>0</v>
@@ -6378,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -6401,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
@@ -6413,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -6436,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I130" t="b">
         <v>0</v>
@@ -6448,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -6471,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I131" t="b">
         <v>0</v>
@@ -6483,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -6506,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I132" t="b">
         <v>0</v>
@@ -6518,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -6541,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I133" t="b">
         <v>0</v>
@@ -6553,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -6576,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I134" t="b">
         <v>0</v>
@@ -6588,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -6611,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I135" t="b">
         <v>0</v>
@@ -6623,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -6646,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I136" t="b">
         <v>0</v>
@@ -6658,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -6681,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I137" t="b">
         <v>0</v>
@@ -6693,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -6716,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I138" t="b">
         <v>0</v>
@@ -6728,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -6751,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I139" t="b">
         <v>0</v>
@@ -6763,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -6786,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I140" t="b">
         <v>0</v>
@@ -6798,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -6806,7 +6849,7 @@
         <v>4</v>
       </c>
       <c r="C141">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
@@ -6821,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I141" t="b">
         <v>0</v>
@@ -6833,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -6856,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I142" t="b">
         <v>0</v>
@@ -6868,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -6891,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I143" t="b">
         <v>0</v>
@@ -6903,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -6926,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I144" t="b">
         <v>0</v>
@@ -6938,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -6961,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I145" t="b">
         <v>0</v>
@@ -6973,15 +7016,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C146">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
@@ -6993,10 +7036,10 @@
         <v>0</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I146" t="b">
         <v>0</v>
@@ -7008,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -7031,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I147" t="b">
         <v>0</v>
@@ -7043,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>151</v>
       </c>
@@ -7066,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I148" t="b">
         <v>0</v>
@@ -7078,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -7101,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I149" t="b">
         <v>0</v>
@@ -7113,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -7136,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I150" t="b">
         <v>0</v>
@@ -7148,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -7171,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I151" t="b">
         <v>0</v>
@@ -7183,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -7206,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I152" t="b">
         <v>0</v>
@@ -7218,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -7241,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="H153" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I153" t="b">
         <v>0</v>
@@ -7253,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -7276,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I154" t="b">
         <v>0</v>
@@ -7288,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -7308,10 +7351,10 @@
         <v>0</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I155" t="b">
         <v>0</v>
@@ -7323,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -7346,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I156" t="b">
         <v>0</v>
@@ -7358,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -7381,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I157" t="b">
         <v>0</v>
@@ -7393,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -7416,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I158" t="b">
         <v>0</v>
@@ -7428,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -7451,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I159" t="b">
         <v>0</v>
@@ -7463,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -7486,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I160" t="b">
         <v>0</v>
@@ -7498,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -7521,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I161" t="b">
         <v>0</v>
@@ -7533,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -7556,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I162" t="b">
         <v>0</v>
@@ -7568,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -7591,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I163" t="b">
         <v>0</v>
@@ -7603,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -7626,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I164" t="b">
         <v>0</v>
@@ -7638,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -7661,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I165" t="b">
         <v>0</v>
@@ -7673,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -7696,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I166" t="b">
         <v>0</v>
@@ -7708,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -7731,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I167" t="b">
         <v>0</v>
@@ -7743,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -7766,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I168" t="b">
         <v>0</v>
@@ -7778,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -7801,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I169" t="b">
         <v>0</v>
@@ -7813,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>173</v>
       </c>
@@ -7836,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I170" t="b">
         <v>0</v>
@@ -7848,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>174</v>
       </c>
@@ -7856,7 +7899,7 @@
         <v>63</v>
       </c>
       <c r="C171">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D171" t="b">
         <v>1</v>
@@ -7868,10 +7911,10 @@
         <v>0</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I171" t="b">
         <v>0</v>
@@ -7883,7 +7926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -7906,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I172" t="b">
         <v>0</v>
@@ -7918,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>176</v>
       </c>
@@ -7941,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I173" t="b">
         <v>0</v>
@@ -7953,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>177</v>
       </c>
@@ -7976,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="H174" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I174" t="b">
         <v>0</v>
@@ -7988,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -8011,7 +8054,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I175" t="b">
         <v>0</v>
@@ -8023,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>179</v>
       </c>
@@ -8046,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="H176" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I176" t="b">
         <v>0</v>
@@ -8058,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -8081,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I177" t="b">
         <v>0</v>
@@ -8093,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -8116,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I178" t="b">
         <v>0</v>
@@ -8128,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -8151,7 +8194,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I179" t="b">
         <v>0</v>
@@ -8163,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>183</v>
       </c>
@@ -8186,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I180" t="b">
         <v>0</v>
@@ -8198,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -8221,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I181" t="b">
         <v>0</v>
@@ -8233,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>185</v>
       </c>
@@ -8256,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I182" t="b">
         <v>0</v>
@@ -8268,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -8291,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I183" t="b">
         <v>0</v>
@@ -8303,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>187</v>
       </c>
@@ -8326,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I184" t="b">
         <v>0</v>
@@ -8338,7 +8381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -8361,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I185" t="b">
         <v>0</v>
@@ -8373,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>189</v>
       </c>
@@ -8381,7 +8424,7 @@
         <v>63</v>
       </c>
       <c r="C186">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D186" t="b">
         <v>1</v>
@@ -8393,10 +8436,10 @@
         <v>0</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I186" t="b">
         <v>0</v>
@@ -8408,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>190</v>
       </c>
@@ -8431,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I187" t="b">
         <v>0</v>
@@ -8443,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -8466,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I188" t="b">
         <v>0</v>
@@ -8478,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -8501,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I189" t="b">
         <v>0</v>
@@ -8513,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>193</v>
       </c>
@@ -8536,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I190" t="b">
         <v>0</v>
@@ -8548,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>194</v>
       </c>
@@ -8571,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I191" t="b">
         <v>0</v>
@@ -8583,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -8606,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I192" t="b">
         <v>0</v>
@@ -8618,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>196</v>
       </c>
@@ -8641,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I193" t="b">
         <v>0</v>
@@ -8653,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>197</v>
       </c>
@@ -8676,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I194" t="b">
         <v>0</v>
@@ -8688,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>198</v>
       </c>
@@ -8711,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I195" t="b">
         <v>0</v>
@@ -8723,7 +8766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>199</v>
       </c>
@@ -8731,7 +8774,7 @@
         <v>63</v>
       </c>
       <c r="C196">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D196" t="b">
         <v>1</v>
@@ -8746,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I196" t="b">
         <v>0</v>
@@ -8758,7 +8801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -8781,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I197" t="b">
         <v>0</v>
@@ -8793,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>201</v>
       </c>
@@ -8816,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I198" t="b">
         <v>0</v>
@@ -8828,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -8851,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I199" t="b">
         <v>0</v>
@@ -8863,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -8886,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I200" t="b">
         <v>0</v>
@@ -8898,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -8921,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I201" t="b">
         <v>0</v>
@@ -8933,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>205</v>
       </c>
@@ -8956,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I202" t="b">
         <v>0</v>
@@ -8968,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -8991,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I203" t="b">
         <v>0</v>
@@ -9003,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -9026,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I204" t="b">
         <v>0</v>
@@ -9038,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -9061,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I205" t="b">
         <v>0</v>
@@ -9073,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -9096,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I206" t="b">
         <v>0</v>
@@ -9108,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -9131,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I207" t="b">
         <v>0</v>
@@ -9143,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -9166,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I208" t="b">
         <v>0</v>
@@ -9178,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -9201,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I209" t="b">
         <v>0</v>
@@ -9213,21 +9256,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>63</v>
-      </c>
-      <c r="C210">
-        <v>50</v>
+        <v>323</v>
+      </c>
+      <c r="C210" t="s">
+        <v>323</v>
       </c>
       <c r="D210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="b">
         <v>0</v>
@@ -9236,10 +9279,10 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="I210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K210" t="b">
         <v>0</v>
@@ -9248,15 +9291,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>324</v>
-      </c>
-      <c r="C211" t="s">
-        <v>324</v>
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <v>270</v>
       </c>
       <c r="D211" t="b">
         <v>0</v>
@@ -9271,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="I211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K211" t="b">
         <v>0</v>
@@ -9283,12 +9326,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C212">
         <v>270</v>
@@ -9306,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I212" t="b">
         <v>0</v>
@@ -9318,15 +9361,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="C213">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="D213" t="b">
         <v>0</v>
@@ -9341,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I213" t="b">
         <v>0</v>
@@ -9353,15 +9396,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>263</v>
-      </c>
-      <c r="C214">
-        <v>290</v>
+        <v>323</v>
+      </c>
+      <c r="C214" t="s">
+        <v>323</v>
       </c>
       <c r="D214" t="b">
         <v>0</v>
@@ -9376,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I214" t="b">
         <v>0</v>
@@ -9388,15 +9431,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>324</v>
-      </c>
-      <c r="C215" t="s">
-        <v>324</v>
+        <v>63</v>
+      </c>
+      <c r="C215">
+        <v>10</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
@@ -9408,10 +9451,10 @@
         <v>0</v>
       </c>
       <c r="G215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="I215" t="b">
         <v>0</v>
@@ -9423,15 +9466,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="C216">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
@@ -9443,10 +9486,10 @@
         <v>0</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I216" t="b">
         <v>0</v>
@@ -9458,15 +9501,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="C217">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D217" t="b">
         <v>0</v>
@@ -9481,19 +9524,19 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I217" t="b">
         <v>0</v>
       </c>
       <c r="K217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L217" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>221</v>
       </c>
@@ -9501,7 +9544,7 @@
         <v>63</v>
       </c>
       <c r="C218">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D218" t="b">
         <v>0</v>
@@ -9513,30 +9556,30 @@
         <v>0</v>
       </c>
       <c r="G218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I218" t="b">
         <v>0</v>
       </c>
       <c r="K218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L218" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="C219">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
@@ -9548,10 +9591,10 @@
         <v>0</v>
       </c>
       <c r="G219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I219" t="b">
         <v>0</v>
@@ -9563,15 +9606,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>263</v>
-      </c>
-      <c r="C220">
-        <v>240</v>
+        <v>323</v>
+      </c>
+      <c r="C220" t="s">
+        <v>323</v>
       </c>
       <c r="D220" t="b">
         <v>0</v>
@@ -9586,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="I220" t="b">
         <v>0</v>
@@ -9598,15 +9641,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C221" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
@@ -9633,15 +9676,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C222" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
@@ -9659,7 +9702,7 @@
         <v>335</v>
       </c>
       <c r="I222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K222" t="b">
         <v>0</v>
@@ -9668,15 +9711,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C223" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D223" t="b">
         <v>0</v>
@@ -9694,7 +9737,7 @@
         <v>336</v>
       </c>
       <c r="I223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K223" t="b">
         <v>0</v>
@@ -9703,15 +9746,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>324</v>
-      </c>
-      <c r="C224" t="s">
-        <v>324</v>
+        <v>4</v>
+      </c>
+      <c r="C224">
+        <v>37</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
@@ -9738,15 +9781,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>4</v>
-      </c>
-      <c r="C225">
-        <v>37</v>
+        <v>323</v>
+      </c>
+      <c r="C225" t="s">
+        <v>323</v>
       </c>
       <c r="D225" t="b">
         <v>0</v>
@@ -9761,10 +9804,10 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K225" t="b">
         <v>0</v>
@@ -9773,50 +9816,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C226" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D226" t="b">
         <v>0</v>
       </c>
       <c r="E226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226" t="b">
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>331</v>
+        <v>430</v>
       </c>
       <c r="I226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K226" t="b">
         <v>0</v>
       </c>
       <c r="L226" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C227" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D227" t="b">
         <v>0</v>
@@ -9831,27 +9874,27 @@
         <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K227" t="b">
         <v>0</v>
       </c>
       <c r="L227" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>324</v>
-      </c>
-      <c r="C228" t="s">
-        <v>324</v>
+        <v>63</v>
+      </c>
+      <c r="C228">
+        <v>120</v>
       </c>
       <c r="D228" t="b">
         <v>0</v>
@@ -9866,10 +9909,10 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="I228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K228" t="b">
         <v>0</v>
@@ -9878,12 +9921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C229">
         <v>120</v>
@@ -9913,15 +9956,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
-      </c>
-      <c r="C230">
-        <v>120</v>
+        <v>323</v>
+      </c>
+      <c r="C230" t="s">
+        <v>323</v>
       </c>
       <c r="D230" t="b">
         <v>0</v>
@@ -9936,10 +9979,10 @@
         <v>0</v>
       </c>
       <c r="H230" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="I230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K230" t="b">
         <v>0</v>
@@ -9948,15 +9991,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>324</v>
-      </c>
-      <c r="C231" t="s">
-        <v>324</v>
+        <v>63</v>
+      </c>
+      <c r="C231">
+        <v>150</v>
       </c>
       <c r="D231" t="b">
         <v>0</v>
@@ -9971,10 +10014,10 @@
         <v>0</v>
       </c>
       <c r="H231" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="I231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K231" t="b">
         <v>0</v>
@@ -9983,12 +10026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C232">
         <v>150</v>
@@ -10018,15 +10061,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233">
-        <v>150</v>
+        <v>323</v>
+      </c>
+      <c r="C233" t="s">
+        <v>323</v>
       </c>
       <c r="D233" t="b">
         <v>0</v>
@@ -10041,10 +10084,10 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="I233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K233" t="b">
         <v>0</v>
@@ -10053,15 +10096,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>324</v>
-      </c>
-      <c r="C234" t="s">
-        <v>324</v>
+        <v>63</v>
+      </c>
+      <c r="C234">
+        <v>300</v>
       </c>
       <c r="D234" t="b">
         <v>0</v>
@@ -10076,10 +10119,10 @@
         <v>0</v>
       </c>
       <c r="H234" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="I234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K234" t="b">
         <v>0</v>
@@ -10088,15 +10131,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>238</v>
       </c>
       <c r="B235" t="s">
         <v>63</v>
       </c>
-      <c r="C235">
-        <v>300</v>
+      <c r="C235" t="s">
+        <v>323</v>
       </c>
       <c r="D235" t="b">
         <v>0</v>
@@ -10111,27 +10154,27 @@
         <v>0</v>
       </c>
       <c r="H235" t="s">
-        <v>413</v>
+        <v>325</v>
       </c>
       <c r="I235" t="b">
         <v>0</v>
       </c>
       <c r="K235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L235" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>239</v>
       </c>
       <c r="B236" t="s">
         <v>63</v>
       </c>
-      <c r="C236" t="s">
-        <v>324</v>
+      <c r="C236">
+        <v>30</v>
       </c>
       <c r="D236" t="b">
         <v>0</v>
@@ -10146,27 +10189,27 @@
         <v>0</v>
       </c>
       <c r="H236" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
       <c r="I236" t="b">
         <v>0</v>
       </c>
       <c r="K236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L236" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C237">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D237" t="b">
         <v>0</v>
@@ -10193,15 +10236,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238">
-        <v>70</v>
+        <v>323</v>
+      </c>
+      <c r="C238" t="s">
+        <v>323</v>
       </c>
       <c r="D238" t="b">
         <v>0</v>
@@ -10216,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="I238" t="b">
         <v>0</v>
@@ -10225,18 +10268,18 @@
         <v>0</v>
       </c>
       <c r="L238" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
       <c r="C239" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D239" t="b">
         <v>0</v>
@@ -10251,27 +10294,27 @@
         <v>0</v>
       </c>
       <c r="H239" t="s">
-        <v>422</v>
+        <v>327</v>
       </c>
       <c r="I239" t="b">
         <v>0</v>
       </c>
       <c r="K239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L239" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="C240" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D240" t="b">
         <v>0</v>
@@ -10286,27 +10329,27 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="I240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L240" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>324</v>
-      </c>
-      <c r="C241" t="s">
-        <v>324</v>
+        <v>262</v>
+      </c>
+      <c r="C241">
+        <v>50</v>
       </c>
       <c r="D241" t="b">
         <v>0</v>
@@ -10321,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="I241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K241" t="b">
         <v>0</v>
@@ -10333,15 +10376,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>263</v>
-      </c>
-      <c r="C242">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="C242" t="s">
+        <v>323</v>
       </c>
       <c r="D242" t="b">
         <v>0</v>
@@ -10356,27 +10399,27 @@
         <v>0</v>
       </c>
       <c r="H242" t="s">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="I242" t="b">
         <v>0</v>
       </c>
       <c r="K242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L242" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>4</v>
+        <v>323</v>
       </c>
       <c r="C243" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D243" t="b">
         <v>0</v>
@@ -10391,45 +10434,45 @@
         <v>0</v>
       </c>
       <c r="H243" t="s">
-        <v>329</v>
+        <v>423</v>
       </c>
       <c r="I243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L243" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>324</v>
-      </c>
-      <c r="C244" t="s">
-        <v>324</v>
+        <v>4</v>
+      </c>
+      <c r="C244">
+        <v>110</v>
       </c>
       <c r="D244" t="b">
         <v>0</v>
       </c>
       <c r="E244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="I244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K244" t="b">
         <v>0</v>
@@ -10438,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>248</v>
       </c>
@@ -10446,7 +10489,7 @@
         <v>4</v>
       </c>
       <c r="C245">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D245" t="b">
         <v>0</v>
@@ -10461,7 +10504,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I245" t="b">
         <v>0</v>
@@ -10473,7 +10516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>249</v>
       </c>
@@ -10481,7 +10524,7 @@
         <v>4</v>
       </c>
       <c r="C246">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D246" t="b">
         <v>0</v>
@@ -10496,7 +10539,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I246" t="b">
         <v>0</v>
@@ -10508,30 +10551,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>250</v>
+        <v>347</v>
       </c>
       <c r="B247" t="s">
         <v>4</v>
       </c>
       <c r="C247">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="D247" t="b">
         <v>0</v>
       </c>
       <c r="E247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>324</v>
+        <v>428</v>
       </c>
       <c r="I247" t="b">
         <v>0</v>
@@ -10540,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="L247" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>348</v>
       </c>
@@ -10551,7 +10594,7 @@
         <v>4</v>
       </c>
       <c r="C248">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D248" t="b">
         <v>0</v>
@@ -10566,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="I248" t="b">
         <v>0</v>
@@ -10575,33 +10618,33 @@
         <v>0</v>
       </c>
       <c r="L248" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="B249" t="s">
         <v>4</v>
       </c>
       <c r="C249">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="D249" t="b">
         <v>0</v>
       </c>
       <c r="E249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G249" t="b">
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>417</v>
+        <v>323</v>
       </c>
       <c r="I249" t="b">
         <v>0</v>
@@ -10613,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -10624,10 +10667,10 @@
         <v>400</v>
       </c>
       <c r="D250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250" t="b">
         <v>0</v>
@@ -10636,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I250" t="b">
         <v>0</v>
@@ -10648,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -10671,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I251" t="b">
         <v>0</v>
@@ -10683,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -10706,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I252" t="b">
         <v>0</v>
@@ -10718,7 +10761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -10741,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I253" t="b">
         <v>0</v>
@@ -10753,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -10776,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I254" t="b">
         <v>0</v>
@@ -10788,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -10811,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I255" t="b">
         <v>0</v>
@@ -10823,7 +10866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -10846,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I256" t="b">
         <v>0</v>
@@ -10858,7 +10901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -10881,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I257" t="b">
         <v>0</v>
@@ -10893,7 +10936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -10916,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I258" t="b">
         <v>0</v>
@@ -10928,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -10951,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I259" t="b">
         <v>0</v>
@@ -10963,9 +11006,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="B260" t="s">
         <v>4</v>
@@ -10986,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I260" t="b">
         <v>0</v>
@@ -10998,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>350</v>
       </c>
@@ -11021,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I261" t="b">
         <v>0</v>
@@ -11033,7 +11076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>351</v>
       </c>
@@ -11056,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I262" t="b">
         <v>0</v>
@@ -11068,7 +11111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>352</v>
       </c>
@@ -11091,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I263" t="b">
         <v>0</v>
@@ -11103,7 +11146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>353</v>
       </c>
@@ -11126,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I264" t="b">
         <v>0</v>
@@ -11138,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>354</v>
       </c>
@@ -11161,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I265" t="b">
         <v>0</v>
@@ -11173,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>355</v>
       </c>
@@ -11196,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I266" t="b">
         <v>0</v>
@@ -11208,7 +11251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>356</v>
       </c>
@@ -11216,22 +11259,22 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E267" t="b">
         <v>0</v>
       </c>
       <c r="F267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G267" t="b">
         <v>0</v>
       </c>
       <c r="H267" t="s">
-        <v>324</v>
+        <v>417</v>
       </c>
       <c r="I267" t="b">
         <v>0</v>
@@ -11243,30 +11286,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>357</v>
+        <v>261</v>
       </c>
       <c r="B268" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="C268">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E268" t="b">
         <v>0</v>
       </c>
       <c r="F268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G268" t="b">
         <v>0</v>
       </c>
       <c r="H268" t="s">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="I268" t="b">
         <v>0</v>
@@ -11278,12 +11321,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>263</v>
+      </c>
+      <c r="B269" t="s">
         <v>262</v>
-      </c>
-      <c r="B269" t="s">
-        <v>263</v>
       </c>
       <c r="C269">
         <v>100</v>
@@ -11301,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I269" t="b">
         <v>0</v>
@@ -11313,12 +11356,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>264</v>
       </c>
       <c r="B270" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C270">
         <v>100</v>
@@ -11336,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I270" t="b">
         <v>0</v>
@@ -11348,12 +11391,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="B271" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C271">
         <v>100</v>
@@ -11371,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I271" t="b">
         <v>0</v>
@@ -11383,12 +11426,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>358</v>
+        <v>265</v>
       </c>
       <c r="B272" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C272">
         <v>100</v>
@@ -11406,7 +11449,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I272" t="b">
         <v>0</v>
@@ -11418,12 +11461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>266</v>
       </c>
       <c r="B273" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C273">
         <v>100</v>
@@ -11441,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I273" t="b">
         <v>0</v>
@@ -11453,12 +11496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>267</v>
       </c>
       <c r="B274" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C274">
         <v>100</v>
@@ -11476,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I274" t="b">
         <v>0</v>
@@ -11488,12 +11531,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>268</v>
       </c>
       <c r="B275" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C275">
         <v>100</v>
@@ -11511,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I275" t="b">
         <v>0</v>
@@ -11523,12 +11566,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>269</v>
       </c>
       <c r="B276" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C276">
         <v>100</v>
@@ -11546,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I276" t="b">
         <v>0</v>
@@ -11558,12 +11601,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>270</v>
       </c>
       <c r="B277" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C277">
         <v>100</v>
@@ -11581,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I277" t="b">
         <v>0</v>
@@ -11593,12 +11636,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>271</v>
       </c>
       <c r="B278" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C278">
         <v>100</v>
@@ -11616,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I278" t="b">
         <v>0</v>
@@ -11628,12 +11671,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>272</v>
       </c>
       <c r="B279" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C279">
         <v>100</v>
@@ -11651,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I279" t="b">
         <v>0</v>
@@ -11663,30 +11706,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>273</v>
       </c>
       <c r="B280" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C280">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E280" t="b">
         <v>0</v>
       </c>
       <c r="F280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G280" t="b">
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>324</v>
+        <v>418</v>
       </c>
       <c r="I280" t="b">
         <v>0</v>
@@ -11698,30 +11741,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>274</v>
       </c>
       <c r="B281" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C281">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="D281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E281" t="b">
         <v>0</v>
       </c>
       <c r="F281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281" t="b">
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>419</v>
+        <v>323</v>
       </c>
       <c r="I281" t="b">
         <v>0</v>
@@ -11733,12 +11776,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>275</v>
       </c>
       <c r="B282" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C282">
         <v>240</v>
@@ -11756,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I282" t="b">
         <v>0</v>
@@ -11768,12 +11811,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>276</v>
       </c>
       <c r="B283" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C283">
         <v>240</v>
@@ -11791,7 +11834,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I283" t="b">
         <v>0</v>
@@ -11803,12 +11846,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>277</v>
       </c>
       <c r="B284" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C284">
         <v>240</v>
@@ -11826,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I284" t="b">
         <v>0</v>
@@ -11838,12 +11881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>278</v>
       </c>
       <c r="B285" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C285">
         <v>240</v>
@@ -11861,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I285" t="b">
         <v>0</v>
@@ -11873,12 +11916,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>279</v>
       </c>
       <c r="B286" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C286">
         <v>240</v>
@@ -11896,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I286" t="b">
         <v>0</v>
@@ -11908,12 +11951,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>280</v>
       </c>
       <c r="B287" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C287">
         <v>240</v>
@@ -11931,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I287" t="b">
         <v>0</v>
@@ -11943,12 +11986,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>281</v>
       </c>
       <c r="B288" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C288">
         <v>240</v>
@@ -11966,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I288" t="b">
         <v>0</v>
@@ -11978,12 +12021,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>282</v>
       </c>
       <c r="B289" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C289">
         <v>240</v>
@@ -12001,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I289" t="b">
         <v>0</v>
@@ -12013,12 +12056,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>283</v>
       </c>
       <c r="B290" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C290">
         <v>240</v>
@@ -12036,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I290" t="b">
         <v>0</v>
@@ -12048,12 +12091,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>284</v>
       </c>
       <c r="B291" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C291">
         <v>240</v>
@@ -12071,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I291" t="b">
         <v>0</v>
@@ -12083,30 +12126,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>285</v>
       </c>
       <c r="B292" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C292">
         <v>240</v>
       </c>
       <c r="D292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F292" t="b">
         <v>0</v>
       </c>
       <c r="G292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H292" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I292" t="b">
         <v>0</v>
@@ -12118,21 +12161,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C293">
         <v>240</v>
       </c>
       <c r="D293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F293" t="b">
         <v>0</v>
@@ -12141,7 +12184,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I293" t="b">
         <v>0</v>
@@ -12153,12 +12196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>287</v>
       </c>
       <c r="B294" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C294">
         <v>240</v>
@@ -12176,7 +12219,7 @@
         <v>1</v>
       </c>
       <c r="H294" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I294" t="b">
         <v>0</v>
@@ -12188,12 +12231,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>288</v>
       </c>
       <c r="B295" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C295">
         <v>240</v>
@@ -12211,7 +12254,7 @@
         <v>1</v>
       </c>
       <c r="H295" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I295" t="b">
         <v>0</v>
@@ -12223,12 +12266,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>289</v>
       </c>
       <c r="B296" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C296">
         <v>240</v>
@@ -12246,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="H296" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I296" t="b">
         <v>0</v>
@@ -12258,12 +12301,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>290</v>
       </c>
       <c r="B297" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C297">
         <v>240</v>
@@ -12281,7 +12324,7 @@
         <v>1</v>
       </c>
       <c r="H297" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I297" t="b">
         <v>0</v>
@@ -12293,12 +12336,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>291</v>
       </c>
       <c r="B298" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C298">
         <v>240</v>
@@ -12316,7 +12359,7 @@
         <v>1</v>
       </c>
       <c r="H298" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I298" t="b">
         <v>0</v>
@@ -12328,12 +12371,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>292</v>
       </c>
       <c r="B299" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C299">
         <v>240</v>
@@ -12351,7 +12394,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I299" t="b">
         <v>0</v>
@@ -12363,12 +12406,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>293</v>
       </c>
       <c r="B300" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C300">
         <v>240</v>
@@ -12386,7 +12429,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I300" t="b">
         <v>0</v>
@@ -12398,12 +12441,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>294</v>
       </c>
       <c r="B301" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C301">
         <v>240</v>
@@ -12421,7 +12464,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I301" t="b">
         <v>0</v>
@@ -12433,12 +12476,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>295</v>
+        <v>358</v>
       </c>
       <c r="B302" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C302">
         <v>240</v>
@@ -12456,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I302" t="b">
         <v>0</v>
@@ -12468,15 +12511,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>359</v>
+        <v>295</v>
       </c>
       <c r="B303" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C303">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="D303" t="b">
         <v>1</v>
@@ -12488,10 +12531,10 @@
         <v>0</v>
       </c>
       <c r="G303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H303" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I303" t="b">
         <v>0</v>
@@ -12503,12 +12546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>296</v>
       </c>
       <c r="B304" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C304">
         <v>280</v>
@@ -12526,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I304" t="b">
         <v>0</v>
@@ -12538,12 +12581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>297</v>
       </c>
       <c r="B305" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C305">
         <v>280</v>
@@ -12561,7 +12604,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I305" t="b">
         <v>0</v>
@@ -12573,12 +12616,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>298</v>
       </c>
       <c r="B306" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C306">
         <v>280</v>
@@ -12596,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I306" t="b">
         <v>0</v>
@@ -12608,12 +12651,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>299</v>
       </c>
       <c r="B307" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C307">
         <v>280</v>
@@ -12631,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I307" t="b">
         <v>0</v>
@@ -12643,12 +12686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>300</v>
       </c>
       <c r="B308" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C308">
         <v>280</v>
@@ -12666,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I308" t="b">
         <v>0</v>
@@ -12678,12 +12721,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>301</v>
       </c>
       <c r="B309" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C309">
         <v>280</v>
@@ -12701,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I309" t="b">
         <v>0</v>
@@ -12713,12 +12756,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>302</v>
       </c>
       <c r="B310" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C310">
         <v>280</v>
@@ -12736,7 +12779,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I310" t="b">
         <v>0</v>
@@ -12748,12 +12791,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>303</v>
       </c>
       <c r="B311" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C311">
         <v>280</v>
@@ -12771,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I311" t="b">
         <v>0</v>
@@ -12783,12 +12826,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>304</v>
       </c>
       <c r="B312" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C312">
         <v>280</v>
@@ -12806,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I312" t="b">
         <v>0</v>
@@ -12818,12 +12861,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>305</v>
       </c>
       <c r="B313" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C313">
         <v>280</v>
@@ -12841,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I313" t="b">
         <v>0</v>
@@ -12853,12 +12896,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>306</v>
       </c>
       <c r="B314" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C314">
         <v>280</v>
@@ -12876,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I314" t="b">
         <v>0</v>
@@ -12888,21 +12931,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="B315" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C315">
         <v>280</v>
       </c>
       <c r="D315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F315" t="b">
         <v>0</v>
@@ -12911,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I315" t="b">
         <v>0</v>
@@ -12923,65 +12966,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>307</v>
+      </c>
+      <c r="B316" t="s">
+        <v>262</v>
+      </c>
+      <c r="C316">
+        <v>50</v>
+      </c>
+      <c r="D316" t="b">
+        <v>0</v>
+      </c>
+      <c r="E316" t="b">
+        <v>0</v>
+      </c>
+      <c r="F316" t="b">
+        <v>1</v>
+      </c>
+      <c r="G316" t="b">
+        <v>0</v>
+      </c>
+      <c r="H316" t="s">
+        <v>429</v>
+      </c>
+      <c r="I316" t="b">
+        <v>0</v>
+      </c>
+      <c r="K316" t="b">
+        <v>0</v>
+      </c>
+      <c r="L316" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
         <v>360</v>
       </c>
-      <c r="B316" t="s">
-        <v>263</v>
-      </c>
-      <c r="C316">
-        <v>280</v>
-      </c>
-      <c r="D316" t="b">
-        <v>0</v>
-      </c>
-      <c r="E316" t="b">
-        <v>1</v>
-      </c>
-      <c r="F316" t="b">
-        <v>0</v>
-      </c>
-      <c r="G316" t="b">
-        <v>0</v>
-      </c>
-      <c r="H316" t="s">
-        <v>324</v>
-      </c>
-      <c r="I316" t="b">
-        <v>0</v>
-      </c>
-      <c r="K316" t="b">
-        <v>0</v>
-      </c>
-      <c r="L316" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>308</v>
-      </c>
       <c r="B317" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C317">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E317" t="b">
         <v>0</v>
       </c>
       <c r="F317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G317" t="b">
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>430</v>
+        <v>323</v>
       </c>
       <c r="I317" t="b">
         <v>0</v>
@@ -12990,15 +13033,15 @@
         <v>0</v>
       </c>
       <c r="L317" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>361</v>
       </c>
       <c r="B318" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C318">
         <v>60</v>
@@ -13016,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I318" t="b">
         <v>0</v>
@@ -13028,12 +13071,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>362</v>
       </c>
       <c r="B319" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C319">
         <v>60</v>
@@ -13051,7 +13094,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I319" t="b">
         <v>0</v>
@@ -13063,12 +13106,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>363</v>
       </c>
       <c r="B320" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C320">
         <v>60</v>
@@ -13086,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I320" t="b">
         <v>0</v>
@@ -13098,12 +13141,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>364</v>
       </c>
       <c r="B321" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C321">
         <v>60</v>
@@ -13121,7 +13164,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I321" t="b">
         <v>0</v>
@@ -13133,30 +13176,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="B322" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C322">
         <v>60</v>
       </c>
       <c r="D322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F322" t="b">
         <v>0</v>
       </c>
       <c r="G322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I322" t="b">
         <v>0</v>
@@ -13168,21 +13211,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="B323" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C323">
         <v>60</v>
       </c>
       <c r="D323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F323" t="b">
         <v>0</v>
@@ -13191,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I323" t="b">
         <v>0</v>
@@ -13203,12 +13246,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>366</v>
       </c>
       <c r="B324" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C324">
         <v>60</v>
@@ -13226,7 +13269,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I324" t="b">
         <v>0</v>
@@ -13238,12 +13281,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>367</v>
       </c>
       <c r="B325" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C325">
         <v>60</v>
@@ -13261,7 +13304,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I325" t="b">
         <v>0</v>
@@ -13273,12 +13316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>368</v>
       </c>
       <c r="B326" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C326">
         <v>60</v>
@@ -13296,7 +13339,7 @@
         <v>1</v>
       </c>
       <c r="H326" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I326" t="b">
         <v>0</v>
@@ -13308,12 +13351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>369</v>
       </c>
       <c r="B327" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C327">
         <v>60</v>
@@ -13331,7 +13374,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I327" t="b">
         <v>0</v>
@@ -13343,12 +13386,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>370</v>
       </c>
       <c r="B328" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C328">
         <v>60</v>
@@ -13366,7 +13409,7 @@
         <v>1</v>
       </c>
       <c r="H328" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I328" t="b">
         <v>0</v>
@@ -13378,12 +13421,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>371</v>
       </c>
       <c r="B329" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C329">
         <v>60</v>
@@ -13401,7 +13444,7 @@
         <v>1</v>
       </c>
       <c r="H329" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I329" t="b">
         <v>0</v>
@@ -13413,12 +13456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>372</v>
       </c>
       <c r="B330" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C330">
         <v>60</v>
@@ -13436,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I330" t="b">
         <v>0</v>
@@ -13448,12 +13491,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>373</v>
       </c>
       <c r="B331" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C331">
         <v>60</v>
@@ -13471,7 +13514,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I331" t="b">
         <v>0</v>
@@ -13483,12 +13526,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>374</v>
       </c>
       <c r="B332" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C332">
         <v>60</v>
@@ -13506,7 +13549,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I332" t="b">
         <v>0</v>
@@ -13518,12 +13561,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>375</v>
       </c>
       <c r="B333" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C333">
         <v>60</v>
@@ -13541,7 +13584,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I333" t="b">
         <v>0</v>
@@ -13553,12 +13596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>376</v>
       </c>
       <c r="B334" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C334">
         <v>60</v>
@@ -13576,7 +13619,7 @@
         <v>1</v>
       </c>
       <c r="H334" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I334" t="b">
         <v>0</v>
@@ -13588,12 +13631,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>377</v>
       </c>
       <c r="B335" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C335">
         <v>60</v>
@@ -13611,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="H335" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I335" t="b">
         <v>0</v>
@@ -13623,12 +13666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>378</v>
       </c>
       <c r="B336" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C336">
         <v>60</v>
@@ -13646,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I336" t="b">
         <v>0</v>
@@ -13658,12 +13701,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>379</v>
       </c>
       <c r="B337" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C337">
         <v>60</v>
@@ -13681,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="H337" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I337" t="b">
         <v>0</v>
@@ -13693,12 +13736,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>380</v>
       </c>
       <c r="B338" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C338">
         <v>60</v>
@@ -13716,7 +13759,7 @@
         <v>1</v>
       </c>
       <c r="H338" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I338" t="b">
         <v>0</v>
@@ -13728,21 +13771,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>381</v>
       </c>
       <c r="B339" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C339">
         <v>60</v>
       </c>
       <c r="D339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F339" t="b">
         <v>0</v>
@@ -13751,7 +13794,7 @@
         <v>1</v>
       </c>
       <c r="H339" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I339" t="b">
         <v>0</v>
@@ -13763,44 +13806,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>309</v>
+      </c>
+      <c r="B340" t="s">
+        <v>63</v>
+      </c>
+      <c r="C340">
+        <v>10</v>
+      </c>
+      <c r="D340" t="b">
+        <v>0</v>
+      </c>
+      <c r="E340" t="b">
+        <v>1</v>
+      </c>
+      <c r="F340" t="b">
+        <v>0</v>
+      </c>
+      <c r="G340" t="b">
+        <v>1</v>
+      </c>
+      <c r="H340" t="s">
+        <v>323</v>
+      </c>
+      <c r="I340" t="b">
+        <v>0</v>
+      </c>
+      <c r="K340" t="b">
+        <v>0</v>
+      </c>
+      <c r="L340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
         <v>382</v>
-      </c>
-      <c r="B340" t="s">
-        <v>263</v>
-      </c>
-      <c r="C340">
-        <v>60</v>
-      </c>
-      <c r="D340" t="b">
-        <v>0</v>
-      </c>
-      <c r="E340" t="b">
-        <v>1</v>
-      </c>
-      <c r="F340" t="b">
-        <v>0</v>
-      </c>
-      <c r="G340" t="b">
-        <v>1</v>
-      </c>
-      <c r="H340" t="s">
-        <v>324</v>
-      </c>
-      <c r="I340" t="b">
-        <v>0</v>
-      </c>
-      <c r="K340" t="b">
-        <v>0</v>
-      </c>
-      <c r="L340" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>310</v>
       </c>
       <c r="B341" t="s">
         <v>63</v>
@@ -13809,10 +13852,10 @@
         <v>10</v>
       </c>
       <c r="D341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F341" t="b">
         <v>0</v>
@@ -13821,7 +13864,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I341" t="b">
         <v>0</v>
@@ -13833,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>383</v>
       </c>
@@ -13856,7 +13899,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I342" t="b">
         <v>0</v>
@@ -13868,7 +13911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>384</v>
       </c>
@@ -13891,7 +13934,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I343" t="b">
         <v>0</v>
@@ -13903,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>385</v>
       </c>
@@ -13926,7 +13969,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I344" t="b">
         <v>0</v>
@@ -13938,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>386</v>
       </c>
@@ -13961,7 +14004,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I345" t="b">
         <v>0</v>
@@ -13973,7 +14016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>387</v>
       </c>
@@ -13996,7 +14039,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I346" t="b">
         <v>0</v>
@@ -14008,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>388</v>
       </c>
@@ -14031,7 +14074,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I347" t="b">
         <v>0</v>
@@ -14043,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>389</v>
       </c>
@@ -14051,7 +14094,7 @@
         <v>63</v>
       </c>
       <c r="C348">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D348" t="b">
         <v>1</v>
@@ -14066,7 +14109,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I348" t="b">
         <v>0</v>
@@ -14078,7 +14121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>390</v>
       </c>
@@ -14101,7 +14144,7 @@
         <v>1</v>
       </c>
       <c r="H349" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I349" t="b">
         <v>0</v>
@@ -14113,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>391</v>
       </c>
@@ -14136,7 +14179,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I350" t="b">
         <v>0</v>
@@ -14148,7 +14191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>392</v>
       </c>
@@ -14171,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I351" t="b">
         <v>0</v>
@@ -14183,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>393</v>
       </c>
@@ -14206,7 +14249,7 @@
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I352" t="b">
         <v>0</v>
@@ -14218,7 +14261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>394</v>
       </c>
@@ -14241,7 +14284,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I353" t="b">
         <v>0</v>
@@ -14253,7 +14296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>395</v>
       </c>
@@ -14276,7 +14319,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I354" t="b">
         <v>0</v>
@@ -14288,7 +14331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>396</v>
       </c>
@@ -14311,7 +14354,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I355" t="b">
         <v>0</v>
@@ -14323,7 +14366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>397</v>
       </c>
@@ -14346,7 +14389,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I356" t="b">
         <v>0</v>
@@ -14358,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>398</v>
       </c>
@@ -14381,7 +14424,7 @@
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I357" t="b">
         <v>0</v>
@@ -14393,7 +14436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>399</v>
       </c>
@@ -14416,7 +14459,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I358" t="b">
         <v>0</v>
@@ -14428,9 +14471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="B359" t="s">
         <v>63</v>
@@ -14439,7 +14482,7 @@
         <v>150</v>
       </c>
       <c r="D359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E359" t="b">
         <v>0</v>
@@ -14451,7 +14494,7 @@
         <v>1</v>
       </c>
       <c r="H359" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I359" t="b">
         <v>0</v>
@@ -14463,7 +14506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>311</v>
       </c>
@@ -14471,7 +14514,7 @@
         <v>63</v>
       </c>
       <c r="C360">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="D360" t="b">
         <v>0</v>
@@ -14480,13 +14523,13 @@
         <v>0</v>
       </c>
       <c r="F360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>324</v>
+        <v>419</v>
       </c>
       <c r="I360" t="b">
         <v>0</v>
@@ -14498,7 +14541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>312</v>
       </c>
@@ -14506,7 +14549,7 @@
         <v>63</v>
       </c>
       <c r="C361">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="D361" t="b">
         <v>0</v>
@@ -14515,13 +14558,13 @@
         <v>0</v>
       </c>
       <c r="F361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H361" t="s">
-        <v>420</v>
+        <v>323</v>
       </c>
       <c r="I361" t="b">
         <v>0</v>
@@ -14533,33 +14576,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>313</v>
       </c>
       <c r="B362" t="s">
-        <v>63</v>
-      </c>
-      <c r="C362">
-        <v>50</v>
+        <v>323</v>
+      </c>
+      <c r="C362" t="s">
+        <v>323</v>
       </c>
       <c r="D362" t="b">
         <v>0</v>
       </c>
       <c r="E362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F362" t="b">
         <v>0</v>
       </c>
       <c r="G362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>324</v>
+        <v>406</v>
       </c>
       <c r="I362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K362" t="b">
         <v>0</v>
@@ -14568,85 +14611,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>314</v>
       </c>
       <c r="B363" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C363" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D363" t="b">
         <v>0</v>
       </c>
       <c r="E363" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G363" t="b">
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="I363" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K363" t="b">
         <v>0</v>
       </c>
       <c r="L363" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>315</v>
       </c>
       <c r="B364" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C364" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D364" t="b">
         <v>0</v>
       </c>
       <c r="E364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G364" t="b">
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="I364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K364" t="b">
         <v>0</v>
       </c>
       <c r="L364" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>316</v>
       </c>
       <c r="B365" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C365" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D365" t="b">
         <v>0</v>
@@ -14661,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I365" t="b">
         <v>1</v>
@@ -14673,15 +14716,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>317</v>
       </c>
       <c r="B366" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C366" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D366" t="b">
         <v>0</v>
@@ -14696,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I366" t="b">
         <v>1</v>
@@ -14708,15 +14751,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>318</v>
       </c>
       <c r="B367" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C367" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D367" t="b">
         <v>0</v>
@@ -14731,7 +14774,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I367" t="b">
         <v>1</v>
@@ -14743,15 +14786,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>319</v>
       </c>
       <c r="B368" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C368" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D368" t="b">
         <v>0</v>
@@ -14766,7 +14809,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I368" t="b">
         <v>1</v>
@@ -14778,15 +14821,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>320</v>
       </c>
       <c r="B369" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C369" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D369" t="b">
         <v>0</v>
@@ -14801,7 +14844,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I369" t="b">
         <v>1</v>
@@ -14813,15 +14856,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="B370" t="s">
-        <v>324</v>
-      </c>
-      <c r="C370" t="s">
-        <v>324</v>
+        <v>262</v>
+      </c>
+      <c r="C370">
+        <v>100</v>
       </c>
       <c r="D370" t="b">
         <v>0</v>
@@ -14836,10 +14879,10 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>401</v>
+        <v>323</v>
       </c>
       <c r="I370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K370" t="b">
         <v>0</v>
@@ -14848,43 +14891,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>408</v>
-      </c>
-      <c r="B371" t="s">
-        <v>263</v>
-      </c>
-      <c r="C371">
-        <v>100</v>
-      </c>
-      <c r="D371" t="b">
-        <v>0</v>
-      </c>
-      <c r="E371" t="b">
-        <v>1</v>
-      </c>
-      <c r="F371" t="b">
-        <v>0</v>
-      </c>
-      <c r="G371" t="b">
-        <v>0</v>
-      </c>
-      <c r="H371" t="s">
-        <v>324</v>
-      </c>
-      <c r="I371" t="b">
-        <v>0</v>
-      </c>
-      <c r="K371" t="b">
-        <v>0</v>
-      </c>
-      <c r="L371" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C237:C238 C242 C235 C232:C233 C229:C230 C225 C216:C220 C212:C214 C123:C210 C1:C114 C371:C1048576 C245:C362">
+  <conditionalFormatting sqref="C236:C237 C241 C234 C231:C232 C228:C229 C224 C215:C219 C211:C213 C122:C209 C1:C114 C370:C1048576 C244:C361">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -14894,81 +14902,81 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C364:C370">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C364)))</formula>
+  <conditionalFormatting sqref="C363:C369 E110:E246 F1:I312">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C363:D363">
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C363)))</formula>
+  <conditionalFormatting sqref="C362:D362">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C362)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="D1:D1048575">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:D61">
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",D59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D312">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",D312)))</formula>
+  <conditionalFormatting sqref="D311">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",D311)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D361">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",D361)))</formula>
+  <conditionalFormatting sqref="D360">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",D360)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D365:D370">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",D365)))</formula>
+  <conditionalFormatting sqref="D364:D369">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",D364)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D248:E249 E110:E247">
-    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",D110)))</formula>
+  <conditionalFormatting sqref="D247:E248">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",D247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E89">
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90:E109">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",E90)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E250:E1048576">
-    <cfRule type="containsText" dxfId="5" priority="21" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",E250)))</formula>
+  <conditionalFormatting sqref="E249:E1048576">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",E249)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="4" priority="17" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="F1:F1048575">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="18" operator="containsText" text="is_TLE">
+    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="is_TLE">
       <formula>NOT(ISERROR(SEARCH("is_TLE",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:I313 G304:G322 G314:I314 F315:I1048576 F304:F316 H245:I362">
-    <cfRule type="containsText" dxfId="2" priority="26" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",F1)))</formula>
+  <conditionalFormatting sqref="G303:G321 G313:I313 F314:I1048576 F303:F315 H244:I361">
+    <cfRule type="containsText" dxfId="7" priority="26" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",F244)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="1" priority="25" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="G1:G1048575">
+    <cfRule type="containsText" dxfId="6" priority="25" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="0" priority="24" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="K1:K1048575">
+    <cfRule type="containsText" dxfId="5" priority="24" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",K1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/metadata_annotated.xlsx
+++ b/data/metadata_annotated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\active_repos\SSRL-Sulfur\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tacaro/Documents/GitHub/SSRL-Sulfur/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3608577-DEF6-4BF7-B722-F110E40E78ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833F1864-200E-4B45-A81F-92758548B19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1874,28 +1874,28 @@
   <dimension ref="A1:L371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B205" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H227" sqref="H227"/>
+      <selection pane="bottomRight" activeCell="A298" sqref="A298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="75.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>151</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>173</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>174</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>176</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>177</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>179</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>183</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>185</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>187</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>189</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>190</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>193</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>194</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>196</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>197</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>198</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>199</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>201</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>205</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>215</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>217</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>218</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>219</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>220</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>221</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>222</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>223</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>224</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>225</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>226</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>229</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>231</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>232</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>233</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>234</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>235</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>236</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>237</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>238</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>239</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>241</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>242</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>243</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>244</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>245</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>246</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>247</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>248</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>249</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>250</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>348</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>349</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>350</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>351</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>352</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>353</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>354</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>355</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>356</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>357</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>262</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>264</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>265</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>358</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>266</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>267</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>268</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>269</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>270</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>271</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>272</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>273</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>274</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>275</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>276</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>277</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>278</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>279</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>280</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>281</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>282</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>283</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>284</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>285</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>286</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>287</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>288</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>289</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>290</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>291</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>292</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>293</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>294</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>295</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>359</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>296</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>297</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>298</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>299</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>300</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>301</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>302</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>303</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>304</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>305</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>306</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>307</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>360</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>308</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>361</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>362</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>363</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>364</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>365</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>309</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>366</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>367</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>368</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>369</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>370</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>371</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>372</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>373</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>374</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>375</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>376</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>377</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>378</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>379</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>380</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>381</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>382</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>310</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>383</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>384</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>385</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>386</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>387</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>388</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>389</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>390</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>391</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>392</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>393</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>394</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>395</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>396</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>397</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>398</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>399</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>400</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>311</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>312</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>313</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>314</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>315</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>316</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>317</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>318</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>319</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>320</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>321</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>408</v>
       </c>

--- a/data/metadata_annotated.xlsx
+++ b/data/metadata_annotated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tacaro/Documents/GitHub/SSRL-Sulfur/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\active_repos\SSRL-Sulfur\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD13B77-0D1D-434C-98DA-47A88BF78C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9545209D-FBA0-49C9-9216-AD8DDA8AABF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1867,26 +1867,26 @@
   <dimension ref="A1:K370"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E339" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B206" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomRight" activeCell="H240" sqref="H240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" customWidth="1"/>
-    <col min="9" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>151</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>173</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>174</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>176</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>177</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>179</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>183</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>185</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>187</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>189</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>190</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>193</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>194</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>196</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>197</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>198</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>199</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>201</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>205</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>215</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>217</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>218</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>219</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>220</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>221</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>222</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>223</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>224</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>225</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>226</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>229</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>231</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>232</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>233</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>234</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>235</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>236</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>237</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>238</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>239</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>241</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>242</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>243</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>244</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>245</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>246</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>247</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>248</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>249</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>346</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>347</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>348</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>349</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>350</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>351</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>352</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>353</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>354</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>355</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>261</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>263</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>264</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>356</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>265</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>266</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>267</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>268</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>269</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>270</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>271</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>272</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>273</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>274</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>275</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>276</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>277</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>278</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>279</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>280</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>281</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>282</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>283</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>284</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>285</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>286</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>287</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>288</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>289</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>290</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>291</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>292</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>293</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>294</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>357</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>295</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>296</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>297</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>298</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>299</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>300</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>301</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>302</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>303</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>304</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>305</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>306</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>358</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>307</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>359</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>360</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>361</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>362</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>363</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>308</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>364</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>365</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>366</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>367</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>368</v>
       </c>
@@ -13331,7 +13331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>369</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>370</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>371</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>372</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>373</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>374</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>375</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>376</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>377</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>378</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>379</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>380</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>309</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>381</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>382</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>383</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>384</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>385</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>386</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>387</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>388</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>389</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>390</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>391</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>392</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>393</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>394</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>395</v>
       </c>
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>396</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>397</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>398</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>310</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>311</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>312</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>313</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>314</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>315</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>316</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>317</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>318</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>319</v>
       </c>
@@ -14766,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>320</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>406</v>
       </c>
